--- a/我の理财计划.xlsx
+++ b/我の理财计划.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习使我快乐\求职学习\601_Software\docs\周熠学习文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\OfferKiller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217C3D66-AF69-4168-A6F8-29B18A886920}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2CAA35-C0EB-4527-AFCC-7BAA4BA3BF30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,214 +25,130 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>易方达上证50指数增强A</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>景顺长城新兴成长混合</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>易方达蓝筹精选混合</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>兴全合润混合</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>中欧医疗健康混合C</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国天惠成长混合A</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>兴全趋势投资混合</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>交银施罗德创业板50指数C</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>创金合信工业周期精选股票A</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>基金</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>比重</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇添富积极投资核心优势三个月持有期混合（FOF）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>策略</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>长期持有</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>每周定投</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>逢跌加仓，波段</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵活</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>富国蓝筹精选股票（QDII）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>汇添富全球消费行业混合（QDII）C</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>易方达增强债券B</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>代码</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>007465</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>260108</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>005827</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>161005</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>163402</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>163406</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>广发高端制造股票A</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>004997</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>003096</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>005968</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>006309</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>007455</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>008169</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>110018</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>其余</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>每3个月选业绩好的FOF一投</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日小额定投</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>理由</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>宽基，上证头部50只指数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>宽基，创业板头部50只指数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱少醒</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>董承非</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢治宇</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>新能源+军工+科技</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>葛兰女神的医药基，长期看好医药，但前面几只已经包含了很多医药所以比重较小</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020年业绩爆表，重仓新能源，但前面几只已经包含了很多新能源所以比重较小</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>半导体或者军工，见好就收</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>港股</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>港股+美股</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘彦春，白酒+医药</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>张坤，白酒+港股</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧价值发现混合C</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>004232</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>004235</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧价值智选回报混合C</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>320007</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺安成长混合</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>005663</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>005609</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国军工主题混合A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉实金融精选股票C</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -266,14 +182,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="等线"/>
       <family val="2"/>
@@ -295,8 +203,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,11 +221,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -330,8 +240,25 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -348,8 +275,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -363,40 +305,49 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="5" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="5" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="0" xfId="8" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="8" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="40% - 着色 1" xfId="5" builtinId="31"/>
-    <cellStyle name="60% - 着色 2" xfId="6" builtinId="36"/>
+  <cellStyles count="9">
+    <cellStyle name="20% - 着色 2" xfId="7" builtinId="34"/>
+    <cellStyle name="40% - 着色 1" xfId="4" builtinId="31"/>
+    <cellStyle name="60% - 着色 2" xfId="5" builtinId="36"/>
+    <cellStyle name="60% - 着色 3" xfId="8" builtinId="40"/>
     <cellStyle name="标题 1" xfId="1" builtinId="16"/>
-    <cellStyle name="差" xfId="3" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="2" builtinId="26"/>
-    <cellStyle name="适中" xfId="4" builtinId="28"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
+    <cellStyle name="注释" xfId="6" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -674,292 +625,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="8.88671875" style="11"/>
     <col min="2" max="2" width="52" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" customWidth="1"/>
-    <col min="5" max="5" width="77.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>110003</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="C7" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="C14" s="3">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
+    </row>
+    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3">
-        <v>4</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="6">
-        <v>4</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="4">
-        <v>4</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="4">
-        <v>4</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="4">
-        <v>10</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <f>SUM(C2:C16)</f>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f>SUM(C2:C15)</f>
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/我の理财计划.xlsx
+++ b/我の理财计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\OfferKiller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2CAA35-C0EB-4527-AFCC-7BAA4BA3BF30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAD7391-1020-4577-BFE8-C710FC92E9BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>易方达上证50指数增强A</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -132,22 +132,6 @@
   </si>
   <si>
     <t>诺安成长混合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>005663</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>005609</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国军工主题混合A</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉实金融精选股票C</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -625,16 +609,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="11"/>
     <col min="2" max="2" width="52" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.4">
@@ -659,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -692,7 +677,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -703,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -752,62 +737,40 @@
     </row>
     <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="C12" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <f>SUM(C2:C15)</f>
+      <c r="C13" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f>SUM(C2:C13)</f>
         <v>100</v>
       </c>
     </row>

--- a/我の理财计划.xlsx
+++ b/我の理财计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\OfferKiller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAD7391-1020-4577-BFE8-C710FC92E9BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A8BA47-5954-4118-BDA1-FA25D69CEEDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>易方达上证50指数增强A</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -132,6 +132,14 @@
   </si>
   <si>
     <t>诺安成长混合</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>005609</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国军工主题混合A</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -609,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -655,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -666,7 +674,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -737,40 +745,51 @@
     </row>
     <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3">
-        <v>10</v>
+      <c r="C12" s="5">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <f>SUM(C2:C13)</f>
+      <c r="C14" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f>SUM(C2:C14)</f>
         <v>100</v>
       </c>
     </row>

--- a/我の理财计划.xlsx
+++ b/我の理财计划.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\OfferKiller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A8BA47-5954-4118-BDA1-FA25D69CEEDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A65A078-BB5B-4571-9119-9659FA7AC541}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,14 +43,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>兴全趋势投资混合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>创金合信工业周期精选股票A</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>基金</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -63,10 +55,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>汇添富全球消费行业混合（QDII）C</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>代码</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -79,10 +67,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>163402</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>163406</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -95,14 +79,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>005968</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>006309</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>007455</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -111,14 +87,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>中欧价值发现混合C</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>004232</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>004235</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -140,6 +108,38 @@
   </si>
   <si>
     <t>富国军工主题混合A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>001510</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国新动力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>519732</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银定期支付双息平衡混合</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>270042</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发纳斯达克100指数A（QDII）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>161028</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国中证新能源汽车指数（LOF）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -620,7 +620,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -632,16 +632,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
@@ -657,120 +657,120 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C6" s="13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="15">
-        <v>6</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="13">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C8" s="15">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C9" s="17">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="17">
+    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C11" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" s="3">
         <v>6</v>
@@ -778,10 +778,10 @@
     </row>
     <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3">
         <v>6</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15">
-        <f>SUM(C2:C14)</f>
+        <f>SUM(C2:C13)</f>
         <v>100</v>
       </c>
     </row>

--- a/我の理财计划.xlsx
+++ b/我の理财计划.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\OfferKiller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A65A078-BB5B-4571-9119-9659FA7AC541}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6F22C9-2053-46D4-A23E-2855DF314DFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>易方达上证50指数增强A</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -87,46 +87,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>004235</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>中欧价值智选回报混合C</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>320007</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>诺安成长混合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>005609</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国军工主题混合A</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>001510</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>富国新动力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>519732</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>交银定期支付双息平衡混合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>270042</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -140,6 +104,34 @@
   </si>
   <si>
     <t>富国中证新能源汽车指数（LOF）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国新动力C</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧医疗健康混合C</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商中证白酒指数A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>161725</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>003096</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>161005</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国天惠成长混合A</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -203,17 +195,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -235,18 +222,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -283,63 +258,47 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="5" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="0" xfId="8" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="8" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="20% - 着色 2" xfId="7" builtinId="34"/>
-    <cellStyle name="40% - 着色 1" xfId="4" builtinId="31"/>
-    <cellStyle name="60% - 着色 2" xfId="5" builtinId="36"/>
-    <cellStyle name="60% - 着色 3" xfId="8" builtinId="40"/>
+  <cellStyles count="6">
+    <cellStyle name="40% - 着色 1" xfId="3" builtinId="31"/>
+    <cellStyle name="60% - 着色 2" xfId="4" builtinId="36"/>
     <cellStyle name="标题 1" xfId="1" builtinId="16"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="2" builtinId="26"/>
-    <cellStyle name="适中" xfId="3" builtinId="28"/>
-    <cellStyle name="注释" xfId="6" builtinId="10"/>
+    <cellStyle name="适中" xfId="2" builtinId="28"/>
+    <cellStyle name="注释" xfId="5" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -617,178 +576,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="11"/>
+    <col min="1" max="1" width="8.88671875" style="9"/>
     <col min="2" max="2" width="52" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>110003</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15">
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14">
         <f>SUM(C2:C13)</f>
         <v>100</v>
       </c>
